--- a/report/Batch_size.xlsx
+++ b/report/Batch_size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanlutz/hpc-course/web-assembly-cluster/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFF0F118-F2A1-6F4A-A201-2E92969BBB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256EF23B-9B47-8F42-B412-31DEC69B6693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1500" windowWidth="27440" windowHeight="15100" xr2:uid="{D47096C6-C726-7C48-9D24-6D5B0E93512E}"/>
   </bookViews>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4B4C3D-0C7F-1C47-B69A-984B764AE2DE}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
